--- a/medicine/Psychotrope/Blue_Hawaii_(cocktail)/Blue_Hawaii_(cocktail).xlsx
+++ b/medicine/Psychotrope/Blue_Hawaii_(cocktail)/Blue_Hawaii_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Blue Hawaii (bleu Hawaï en français) est un cocktail de la cuisine hawaïenne / culture Tiki, à base de rhum, de curaçao bleu, de lait de coco, et de jus d'ananas[1],[2].
+Blue Hawaii (bleu Hawaï en français) est un cocktail de la cuisine hawaïenne / culture Tiki, à base de rhum, de curaçao bleu, de lait de coco, et de jus d'ananas,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cocktail rafraîchissant, variante des Blue Lagoon, Ocean breeze, Blue lady, Ti-punch, Mojito..., est inspiré de la culture Tiki, de l'ambiance, et de la couleur estivale turquoise tropicale des plages d'Hawaii, dans l'océan Pacifique. 
 	Plages du Hilton Hawaiian Village de Waikiki, de Honolulu, à Hawaï
@@ -548,7 +562,9 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>4 mesures de rhum blanc
 2 mesures de curaçao bleu
@@ -584,7 +600,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Blue Hawaii est également le titre de l'album Blue Hawaii de 1961, du chanteur et acteur américain Elvis Presley (1935-1977), musique de film du film musical Sous le ciel bleu de Hawaï de Norman Taurog, dont Elvis tient le rôle principal. 
 </t>
